--- a/medicine/Sexualité et sexologie/Fétichisme_de_la_poupée/Fétichisme_de_la_poupée.xlsx
+++ b/medicine/Sexualité et sexologie/Fétichisme_de_la_poupée/Fétichisme_de_la_poupée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9tichisme_de_la_poup%C3%A9e</t>
+          <t>Fétichisme_de_la_poupée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fétichisme de la poupée, ou pédiophilie, est un fétichisme sexuel dans lequel un individu est attiré par les poupées et d'autres types d'objets semblables tels que les figurines. L'attirance peut inclure un désir d'interaction sexuelle avec une poupée, un fantasme sexuel avec une poupée animée ou inanimée, un contact entre poupées ou un plaisir sexuel éprouvé à l'idée de pouvoir être transformé ou de transformer un autre individu en poupée.
 </t>
